--- a/xlsx/country_comparison/irt_pol_median.xlsx
+++ b/xlsx/country_comparison/irt_pol_median.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -453,107 +450,98 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.118266759376858</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0500365083534178</v>
+        <v>0.0920987382434046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0920987382434046</v>
+        <v>0.773046940540996</v>
       </c>
       <c r="E2" t="n">
-        <v>0.773046940540996</v>
+        <v>0.169379849461424</v>
       </c>
       <c r="F2" t="n">
-        <v>0.169379849461424</v>
+        <v>-0.398910531419891</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.398910531419891</v>
+        <v>-0.323633203048968</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.323633203048968</v>
+        <v>0.0447560739024471</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0447560739024471</v>
+        <v>-0.129806726007518</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.129806726007518</v>
+        <v>0.570091796525703</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570091796525703</v>
+        <v>0.703817607112367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.703817607112367</v>
+        <v>-0.108130951189116</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.108130951189116</v>
+        <v>0.538430729599699</v>
       </c>
       <c r="N2" t="n">
-        <v>0.538430729599699</v>
-      </c>
-      <c r="O2" t="n">
         <v>-0.545033936855826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00873981537119088</v>
+        <v>0.00881325884807829</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.100479992631669</v>
+        <v>0.00890730660483128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00883339647141292</v>
+        <v>0.599757331676837</v>
       </c>
       <c r="E3" t="n">
-        <v>0.599686806822273</v>
+        <v>0.00757977994092807</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0075114131866649</v>
+        <v>-0.402881003671508</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.402952937993183</v>
+        <v>-0.3844113973846</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.384486330197404</v>
+        <v>-0.0781727692204663</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0782463899577811</v>
+        <v>-0.212428220169486</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.212501208479425</v>
+        <v>0.419839066954901</v>
       </c>
       <c r="K3" t="n">
-        <v>0.419772564177092</v>
+        <v>0.539070084531935</v>
       </c>
       <c r="L3" t="n">
-        <v>0.538998748956507</v>
+        <v>-0.17525524081517</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.175330645756186</v>
+        <v>0.360328140938797</v>
       </c>
       <c r="N3" t="n">
-        <v>0.360259817405402</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-0.541046437014394</v>
+        <v>-0.540972227886493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.5</v>
@@ -562,92 +550,86 @@
         <v>0.5</v>
       </c>
       <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.8</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>0.4</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.1</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.4</v>
@@ -656,86 +638,80 @@
         <v>0.3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.7</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2</v>
-      </c>
       <c r="N6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.857142857142857</v>
       </c>
       <c r="C7" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.777777777777778</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="J7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9</v>
-      </c>
       <c r="L7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.8</v>
-      </c>
       <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.5</v>
       </c>
     </row>
